--- a/countrydata.xlsx
+++ b/countrydata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="517">
   <si>
     <t>ID</t>
   </si>
@@ -53,9 +53,6 @@
     <t>AE</t>
   </si>
   <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua &amp; Barbuda</t>
-  </si>
-  <si>
     <t>AI</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>AS</t>
   </si>
   <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
     <t>AT</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t>AX</t>
   </si>
   <si>
-    <t>Aland Islands</t>
-  </si>
-  <si>
     <t>AZ</t>
   </si>
   <si>
@@ -137,9 +125,6 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia &amp; Herzegovina</t>
-  </si>
-  <si>
     <t>BB</t>
   </si>
   <si>
@@ -161,9 +146,6 @@
     <t>BF</t>
   </si>
   <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
     <t>BG</t>
   </si>
   <si>
@@ -191,15 +173,9 @@
     <t>BL</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>BN</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
     <t>BO</t>
   </si>
   <si>
@@ -215,9 +191,6 @@
     <t>BQ</t>
   </si>
   <si>
-    <t>Bonaire, Sint Eustatius and Saba</t>
-  </si>
-  <si>
     <t>BR</t>
   </si>
   <si>
@@ -239,9 +212,6 @@
     <t>BV</t>
   </si>
   <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
     <t>BW</t>
   </si>
   <si>
@@ -269,27 +239,15 @@
     <t>CC</t>
   </si>
   <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
-    <t>Democratic Republic of Congo</t>
-  </si>
-  <si>
     <t>CF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
     <t>CG</t>
   </si>
   <si>
-    <t>Republic of Congo</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
@@ -302,15 +260,9 @@
     <t>CI</t>
   </si>
   <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
     <t>CK</t>
   </si>
   <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
     <t>CL</t>
   </si>
   <si>
@@ -335,9 +287,6 @@
     <t>CR</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
     <t>CU</t>
   </si>
   <si>
@@ -347,9 +296,6 @@
     <t>CV</t>
   </si>
   <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
     <t>CW</t>
   </si>
   <si>
@@ -359,9 +305,6 @@
     <t>CX</t>
   </si>
   <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
     <t>CY</t>
   </si>
   <si>
@@ -401,9 +344,6 @@
     <t>DO</t>
   </si>
   <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
     <t>DZ</t>
   </si>
   <si>
@@ -431,9 +371,6 @@
     <t>EH</t>
   </si>
   <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
     <t>ER</t>
   </si>
   <si>
@@ -467,21 +404,12 @@
     <t>FK</t>
   </si>
   <si>
-    <t>Falkland Islands</t>
-  </si>
-  <si>
     <t>FM</t>
   </si>
   <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
     <t>FO</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
@@ -497,9 +425,6 @@
     <t>GB</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>GE</t>
   </si>
   <si>
@@ -515,9 +440,6 @@
     <t>GF</t>
   </si>
   <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
     <t>GG</t>
   </si>
   <si>
@@ -554,9 +476,6 @@
     <t>Guinea</t>
   </si>
   <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
     <t>GP</t>
   </si>
   <si>
@@ -566,9 +485,6 @@
     <t>GQ</t>
   </si>
   <si>
-    <t>Equitorial Guinea</t>
-  </si>
-  <si>
     <t>GR</t>
   </si>
   <si>
@@ -578,9 +494,6 @@
     <t>GS</t>
   </si>
   <si>
-    <t>South Georgia and South Sandwich Islands</t>
-  </si>
-  <si>
     <t>GT</t>
   </si>
   <si>
@@ -608,15 +521,9 @@
     <t>HK</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>HM</t>
   </si>
   <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
     <t>HN</t>
   </si>
   <si>
@@ -659,9 +566,6 @@
     <t>IM</t>
   </si>
   <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
@@ -671,9 +575,6 @@
     <t>IO</t>
   </si>
   <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
     <t>IQ</t>
   </si>
   <si>
@@ -725,9 +626,6 @@
     <t>JU</t>
   </si>
   <si>
-    <t>Juan De Nova Island</t>
-  </si>
-  <si>
     <t>KE</t>
   </si>
   <si>
@@ -758,24 +656,15 @@
     <t>Comoros</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>KN</t>
   </si>
   <si>
     <t>KP</t>
   </si>
   <si>
-    <t>North Korea</t>
-  </si>
-  <si>
     <t>KR</t>
   </si>
   <si>
-    <t>South Korea</t>
-  </si>
-  <si>
     <t>XK</t>
   </si>
   <si>
@@ -791,9 +680,6 @@
     <t>KY</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
     <t>KZ</t>
   </si>
   <si>
@@ -815,12 +701,6 @@
     <t>LC</t>
   </si>
   <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
     <t>SL</t>
   </si>
   <si>
@@ -902,15 +782,9 @@
     <t>MF</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>MH</t>
   </si>
   <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
     <t>MK</t>
   </si>
   <si>
@@ -944,9 +818,6 @@
     <t>MP</t>
   </si>
   <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
     <t>MQ</t>
   </si>
   <si>
@@ -1016,9 +887,6 @@
     <t>NC</t>
   </si>
   <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
@@ -1028,9 +896,6 @@
     <t>NF</t>
   </si>
   <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
     <t>NG</t>
   </si>
   <si>
@@ -1076,9 +941,6 @@
     <t>NZ</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>OM</t>
   </si>
   <si>
@@ -1100,15 +962,9 @@
     <t>PF</t>
   </si>
   <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
     <t>PH</t>
   </si>
   <si>
@@ -1130,27 +986,15 @@
     <t>PM</t>
   </si>
   <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
     <t>PN</t>
   </si>
   <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
     <t>PS</t>
   </si>
   <si>
-    <t>Palestinian Territories</t>
-  </si>
-  <si>
     <t>PT</t>
   </si>
   <si>
@@ -1208,15 +1052,9 @@
     <t>SA</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
     <t>SB</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -1244,9 +1082,6 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -1256,24 +1091,15 @@
     <t>SJ</t>
   </si>
   <si>
-    <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
     <t>SK</t>
   </si>
   <si>
     <t>Slovakia</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
     <t>SM</t>
   </si>
   <si>
-    <t>San Marino</t>
-  </si>
-  <si>
     <t>SN</t>
   </si>
   <si>
@@ -1295,27 +1121,15 @@
     <t>SS</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
     <t>SV</t>
   </si>
   <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
     <t>SX</t>
   </si>
   <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
     <t>Syria</t>
   </si>
   <si>
@@ -1331,9 +1145,6 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
     <t>TD</t>
   </si>
   <si>
@@ -1343,9 +1154,6 @@
     <t>TF</t>
   </si>
   <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
     <t>TG</t>
   </si>
   <si>
@@ -1400,9 +1208,6 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
     <t>TT</t>
   </si>
   <si>
@@ -1439,45 +1244,24 @@
     <t>UM-DQ</t>
   </si>
   <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
     <t>UM-FQ</t>
   </si>
   <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
     <t>UM-HQ</t>
   </si>
   <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
     <t>UM-JQ</t>
   </si>
   <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
     <t>UM-MQ</t>
   </si>
   <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
     <t>UM-WQ</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>UY</t>
   </si>
   <si>
@@ -1493,15 +1277,9 @@
     <t>VA</t>
   </si>
   <si>
-    <t>Vatican City</t>
-  </si>
-  <si>
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t>VE</t>
   </si>
   <si>
@@ -1511,15 +1289,9 @@
     <t>VG</t>
   </si>
   <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
     <t>VI</t>
   </si>
   <si>
-    <t>US Virgin Islands</t>
-  </si>
-  <si>
     <t>VN</t>
   </si>
   <si>
@@ -1535,9 +1307,6 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futu</t>
-  </si>
-  <si>
     <t>WS</t>
   </si>
   <si>
@@ -1559,9 +1328,6 @@
     <t>ZA</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
     <t>ZM</t>
   </si>
   <si>
@@ -1575,6 +1341,243 @@
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>United_Arab_Emirates</t>
+  </si>
+  <si>
+    <t>American_Samoa</t>
+  </si>
+  <si>
+    <t>Aland_Islands</t>
+  </si>
+  <si>
+    <t>Burkina_Faso</t>
+  </si>
+  <si>
+    <t>Saint_Barthelemy</t>
+  </si>
+  <si>
+    <t>Brunei_Darussalam</t>
+  </si>
+  <si>
+    <t>Bonaire,_Sint_Eustatius_and_Saba</t>
+  </si>
+  <si>
+    <t>Bouvet_Island</t>
+  </si>
+  <si>
+    <t>Cocos_Islands</t>
+  </si>
+  <si>
+    <t>Democratic_Republic_of_Congo</t>
+  </si>
+  <si>
+    <t>Central_African_Republic</t>
+  </si>
+  <si>
+    <t>Republic_of_Congo</t>
+  </si>
+  <si>
+    <t>Ivory_Coast</t>
+  </si>
+  <si>
+    <t>Cook_Islands</t>
+  </si>
+  <si>
+    <t>Costa_Rica</t>
+  </si>
+  <si>
+    <t>Cape_Verde</t>
+  </si>
+  <si>
+    <t>Christmas_Island</t>
+  </si>
+  <si>
+    <t>Dominican_Republic</t>
+  </si>
+  <si>
+    <t>Western_Sahara</t>
+  </si>
+  <si>
+    <t>Falkland_Islands</t>
+  </si>
+  <si>
+    <t>Federated_States_of_Micronesia</t>
+  </si>
+  <si>
+    <t>Faroe_Islands</t>
+  </si>
+  <si>
+    <t>United_Kingdom</t>
+  </si>
+  <si>
+    <t>French_Guiana</t>
+  </si>
+  <si>
+    <t>Glorioso_Islands</t>
+  </si>
+  <si>
+    <t>Equitorial_Guinea</t>
+  </si>
+  <si>
+    <t>South_Georgia_and_South_Sandwich_Islands</t>
+  </si>
+  <si>
+    <t>Hong_Kong</t>
+  </si>
+  <si>
+    <t>Heard_Island_and_McDonald_Islands</t>
+  </si>
+  <si>
+    <t>Isle_of_Man</t>
+  </si>
+  <si>
+    <t>British_Indian_Ocean_Territory</t>
+  </si>
+  <si>
+    <t>Juan_De_Nova_Island</t>
+  </si>
+  <si>
+    <t>Saint_Kitts_and_Nevis</t>
+  </si>
+  <si>
+    <t>North_Korea</t>
+  </si>
+  <si>
+    <t>South_Korea</t>
+  </si>
+  <si>
+    <t>Cayman_Islands</t>
+  </si>
+  <si>
+    <t>Saint_Lucia</t>
+  </si>
+  <si>
+    <t>Sri_Lanka</t>
+  </si>
+  <si>
+    <t>Saint_Martin</t>
+  </si>
+  <si>
+    <t>Marshall_Islands</t>
+  </si>
+  <si>
+    <t>Northern_Mariana_Islands</t>
+  </si>
+  <si>
+    <t>New_Caledonia</t>
+  </si>
+  <si>
+    <t>Norfolk_Island</t>
+  </si>
+  <si>
+    <t>New_Zealand</t>
+  </si>
+  <si>
+    <t>French_Polynesia</t>
+  </si>
+  <si>
+    <t>Papua_New_Guinea</t>
+  </si>
+  <si>
+    <t>Saint_Pierre_and_Miquelon</t>
+  </si>
+  <si>
+    <t>Pitcairn_Islands</t>
+  </si>
+  <si>
+    <t>Puerto_Rico</t>
+  </si>
+  <si>
+    <t>Palestinian_Territories</t>
+  </si>
+  <si>
+    <t>Saudi_Arabia</t>
+  </si>
+  <si>
+    <t>Solomon_Islands</t>
+  </si>
+  <si>
+    <t>Saint_Helena</t>
+  </si>
+  <si>
+    <t>Svalbard_and_Jan_Mayen</t>
+  </si>
+  <si>
+    <t>Sierra_Leone</t>
+  </si>
+  <si>
+    <t>San_Marino</t>
+  </si>
+  <si>
+    <t>South_Sudan</t>
+  </si>
+  <si>
+    <t>Sao_Tome_and_Principe</t>
+  </si>
+  <si>
+    <t>El_Salvador</t>
+  </si>
+  <si>
+    <t>Sint_Maarten</t>
+  </si>
+  <si>
+    <t>Turks_and_Caicos_Islands</t>
+  </si>
+  <si>
+    <t>French_Southern_and_Antarctic_Lands</t>
+  </si>
+  <si>
+    <t>Trinidad_and_Tobago</t>
+  </si>
+  <si>
+    <t>Jarvis_Island</t>
+  </si>
+  <si>
+    <t>Baker_Island</t>
+  </si>
+  <si>
+    <t>Howland_Island</t>
+  </si>
+  <si>
+    <t>Johnston_Atoll</t>
+  </si>
+  <si>
+    <t>Midway_Islands</t>
+  </si>
+  <si>
+    <t>Wake_Island</t>
+  </si>
+  <si>
+    <t>United_States</t>
+  </si>
+  <si>
+    <t>Vatican_City</t>
+  </si>
+  <si>
+    <t>Saint_Vincent_and_the_Grenadines</t>
+  </si>
+  <si>
+    <t>British_Virgin_Islands</t>
+  </si>
+  <si>
+    <t>US_Virgin_Islands</t>
+  </si>
+  <si>
+    <t>Wallis_and_Futu</t>
+  </si>
+  <si>
+    <t>South_Africa</t>
+  </si>
+  <si>
+    <t>Antigua_and_Barbuda</t>
+  </si>
+  <si>
+    <t>Bosnia_and_Herzegovina</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1625,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1943,22 +1956,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED2283B-6690-4A96-944F-1EFDF007E365}">
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F257" sqref="F257"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1975,304 +1989,305 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>200</v>
+      </c>
+      <c r="E2" s="1">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1">
+        <v>76965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="1">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1">
+        <v>201</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9400145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>202</v>
+      </c>
+      <c r="F4" s="1">
+        <v>35530081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>204</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>35530081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1">
-        <v>120</v>
-      </c>
-      <c r="D3" s="1">
-        <v>204</v>
-      </c>
-      <c r="E3" s="1">
-        <v>235</v>
-      </c>
-      <c r="F3" s="1">
-        <v>28007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>201</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2930187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C5" s="1">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="D5" s="1">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="F5" s="1">
-        <v>41318142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1">
         <v>204</v>
       </c>
       <c r="F6" s="1">
-        <v>55641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E7" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F7" s="1">
-        <v>76965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2930187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>200</v>
+      </c>
+      <c r="D8" s="1">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1">
+        <v>206</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2930450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>200</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1">
+        <v>207</v>
+      </c>
+      <c r="F9" s="1">
+        <v>29784193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
-        <v>204</v>
-      </c>
-      <c r="D8" s="1">
-        <v>204</v>
-      </c>
-      <c r="E8" s="1">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1">
-        <v>29784193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>198</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>14909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D10" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="F10" s="1">
-        <v>102012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44271041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1">
+        <v>209</v>
+      </c>
+      <c r="F11" s="1">
+        <v>55641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1">
-        <v>220</v>
-      </c>
-      <c r="D11" s="1">
-        <v>86</v>
-      </c>
-      <c r="E11" s="1">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1">
-        <v>44271041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="D12" s="1">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="E12" s="1">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F12" s="1">
-        <v>2930450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8735453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>200</v>
+      </c>
+      <c r="D13" s="1">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>199</v>
+      </c>
+      <c r="F13" s="1">
+        <v>24450561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <v>200</v>
+      </c>
+      <c r="D14" s="1">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>198</v>
+      </c>
+      <c r="F14" s="1">
+        <v>105264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="1">
+        <v>200</v>
+      </c>
+      <c r="D15" s="1">
+        <v>200</v>
+      </c>
+      <c r="E15" s="1">
+        <v>197</v>
+      </c>
+      <c r="F15" s="1">
+        <v>28007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1">
-        <v>255</v>
-      </c>
-      <c r="D13" s="1">
-        <v>110</v>
-      </c>
-      <c r="E13" s="1">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1">
-        <v>105264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1">
-        <v>107</v>
-      </c>
-      <c r="D14" s="1">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1">
-        <v>204</v>
-      </c>
-      <c r="F14" s="1">
-        <v>24450561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1">
-        <v>85</v>
-      </c>
-      <c r="D15" s="1">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1">
-        <v>204</v>
-      </c>
-      <c r="F15" s="1">
-        <v>8735453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="1">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="D16" s="1">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="E16" s="1">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F16" s="1">
         <v>9827589</v>
@@ -2280,122 +2295,122 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>516</v>
       </c>
       <c r="C17" s="1">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="D17" s="1">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="E17" s="1">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="F17" s="1">
-        <v>395361</v>
+        <v>3507017</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D18" s="1">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E18" s="1">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="F18" s="1">
-        <v>1492584</v>
+        <v>285719</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>472</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D19" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E19" s="1">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>164669751</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D20" s="1">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="E20" s="1">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="F20" s="1">
-        <v>164669751</v>
+        <v>11429336</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>442</v>
       </c>
       <c r="C21" s="1">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E21" s="1">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="F21" s="1">
-        <v>285719</v>
+        <v>19193382</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="D22" s="1">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="E22" s="1">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F22" s="1">
-        <v>9468338</v>
+        <v>7084571</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2406,53 +2421,53 @@
         <v>42</v>
       </c>
       <c r="C23" s="1">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="D23" s="1">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="E23" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F23" s="1">
-        <v>11429336</v>
+        <v>1492584</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="D24" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E24" s="1">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="F24" s="1">
-        <v>374681</v>
+        <v>10864245</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D25" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E25" s="1">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="F25" s="1">
         <v>11175692</v>
@@ -2460,179 +2475,179 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>443</v>
       </c>
       <c r="C26" s="1">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="D26" s="1">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E26" s="1">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="F26" s="1">
-        <v>61349</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D27" s="1">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="E27" s="1">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="F27" s="1">
-        <v>807610</v>
+        <v>61349</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>444</v>
       </c>
       <c r="C28" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="D28" s="1">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="E28" s="1">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="F28" s="1">
-        <v>11051600</v>
+        <v>428697</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="D29" s="1">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="E29" s="1">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="F29" s="1">
-        <v>24200</v>
+        <v>11051600</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>445</v>
       </c>
       <c r="C30" s="1">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="E30" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F30" s="1">
-        <v>3507017</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D31" s="1">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="E31" s="1">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="F31" s="1">
-        <v>2291661</v>
+        <v>209288278</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="D32" s="1">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="E32" s="1">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>395361</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="D33" s="1">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="E33" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F33" s="1">
-        <v>209288278</v>
+        <v>807610</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>213</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>214</v>
+        <v>446</v>
       </c>
       <c r="C34" s="1">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="D34" s="1">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="E34" s="1">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2640,279 +2655,279 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>494</v>
+        <v>61</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C35" s="1">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="D35" s="1">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F35" s="1">
-        <v>31196</v>
+        <v>2291661</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D36" s="1">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="E36" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F36" s="1">
-        <v>428697</v>
+        <v>9468338</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="D37" s="1">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="E37" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F37" s="1">
-        <v>7084571</v>
+        <v>374681</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="D38" s="1">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="E38" s="1">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="F38" s="1">
-        <v>19193382</v>
+        <v>36624199</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>447</v>
       </c>
       <c r="C39" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D39" s="1">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="E39" s="1">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="F39" s="1">
-        <v>10864245</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>238</v>
+        <v>448</v>
       </c>
       <c r="C40" s="1">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="D40" s="1">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="E40" s="1">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="F40" s="1">
-        <v>16005373</v>
+        <v>81339988</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>449</v>
       </c>
       <c r="C41" s="1">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E41" s="1">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="F41" s="1">
-        <v>24053727</v>
+        <v>4659080</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="C42" s="1">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D42" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E42" s="1">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="F42" s="1">
-        <v>36624199</v>
+        <v>5125821</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C43" s="1">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="D43" s="1">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E43" s="1">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="F43" s="1">
-        <v>539560</v>
+        <v>8476005</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>254</v>
+        <v>451</v>
       </c>
       <c r="C44" s="1">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="D44" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E44" s="1">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="F44" s="1">
-        <v>61559</v>
+        <v>24905843</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>452</v>
       </c>
       <c r="C45" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D45" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E45" s="1">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="F45" s="1">
-        <v>4659080</v>
+        <v>17380</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="C46" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D46" s="1">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E46" s="1">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="F46" s="1">
-        <v>14899994</v>
+        <v>18054726</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="D47" s="1">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="E47" s="1">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="F47" s="1">
-        <v>18054726</v>
+        <v>24053727</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D48" s="1">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E48" s="1">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="F48" s="1">
         <v>1409517397</v>
@@ -2920,479 +2935,479 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="D49" s="1">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="E49" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F49" s="1">
-        <v>2072</v>
+        <v>49065615</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="C50" s="1">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="D50" s="1">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="E50" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F50" s="1">
-        <v>596</v>
+        <v>4905769</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D51" s="1">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="E51" s="1">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="F51" s="1">
-        <v>49065615</v>
+        <v>11484636</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>242</v>
+        <v>454</v>
       </c>
       <c r="C52" s="1">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D52" s="1">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E52" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F52" s="1">
-        <v>813912</v>
+        <v>539560</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C53" s="1">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="D53" s="1">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="E53" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F53" s="1">
-        <v>17380</v>
+        <v>160539</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>455</v>
       </c>
       <c r="C54" s="1">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="D54" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E54" s="1">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="F54" s="1">
-        <v>4905769</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="1">
         <v>198</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="1">
-        <v>27</v>
-      </c>
       <c r="D55" s="1">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E55" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F55" s="1">
-        <v>4189353</v>
+        <v>1179551</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C56" s="1">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="D56" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E56" s="1">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="F56" s="1">
-        <v>11484636</v>
+        <v>10618303</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C57" s="1">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="D57" s="1">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="E57" s="1">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="F57" s="1">
-        <v>160539</v>
+        <v>82114224</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C58" s="1">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="D58" s="1">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="E58" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F58" s="1">
-        <v>1179551</v>
+        <v>956985</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C59" s="1">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="D59" s="1">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="E59" s="1">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="F59" s="1">
-        <v>10618303</v>
+        <v>5733551</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D60" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E60" s="1">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="F60" s="1">
-        <v>81339988</v>
+        <v>73925</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>456</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D61" s="1">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E61" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F61" s="1">
-        <v>5733551</v>
+        <v>10766998</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C62" s="1">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="D62" s="1">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="E62" s="1">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="F62" s="1">
-        <v>956985</v>
+        <v>41318142</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C63" s="1">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="D63" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E63" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F63" s="1">
-        <v>73925</v>
+        <v>16624858</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C64" s="1">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="D64" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E64" s="1">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="F64" s="1">
-        <v>10766998</v>
+        <v>1309632</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C65" s="1">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="D65" s="1">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="E65" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F65" s="1">
-        <v>16624858</v>
+        <v>97553151</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>457</v>
       </c>
       <c r="C66" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="1">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F66" s="1">
-        <v>97553151</v>
+        <v>552628</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>425</v>
+        <v>114</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>426</v>
+        <v>115</v>
       </c>
       <c r="C67" s="1">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D67" s="1">
         <v>204</v>
       </c>
       <c r="E67" s="1">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="F67" s="1">
-        <v>6377853</v>
+        <v>5068831</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="C68" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E68" s="1">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="F68" s="1">
-        <v>1267689</v>
+        <v>46354321</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C69" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E69" s="1">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="F69" s="1">
-        <v>5068831</v>
+        <v>104957438</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C70" s="1">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D70" s="1">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="E70" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F70" s="1">
-        <v>1309632</v>
+        <v>5523231</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C71" s="1">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D71" s="1">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="E71" s="1">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="F71" s="1">
-        <v>104957438</v>
+        <v>905502</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>146</v>
+        <v>458</v>
       </c>
       <c r="C72" s="1">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="D72" s="1">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="E72" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F72" s="1">
         <v>2910</v>
@@ -3400,719 +3415,719 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>150</v>
+        <v>459</v>
       </c>
       <c r="C73" s="1">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D73" s="1">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="E73" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F73" s="1">
-        <v>49290</v>
+        <v>104937</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>148</v>
+        <v>460</v>
       </c>
       <c r="C74" s="1">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="D74" s="1">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="E74" s="1">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F74" s="1">
-        <v>104937</v>
+        <v>49290</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C75" s="1">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D75" s="1">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="E75" s="1">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="F75" s="1">
-        <v>905502</v>
+        <v>64979548</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C76" s="1">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="D76" s="1">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="E76" s="1">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="F76" s="1">
-        <v>5523231</v>
+        <v>2025137</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>152</v>
+        <v>461</v>
       </c>
       <c r="C77" s="1">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="D77" s="1">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="E77" s="1">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="F77" s="1">
-        <v>64979548</v>
+        <v>66181585</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C78" s="1">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="D78" s="1">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E78" s="1">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="F78" s="1">
-        <v>282731</v>
+        <v>107825</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>357</v>
+        <v>133</v>
       </c>
       <c r="C79" s="1">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D79" s="1">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E79" s="1">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="F79" s="1">
-        <v>283007</v>
+        <v>3912061</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>437</v>
+        <v>136</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="C80" s="1">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D80" s="1">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E80" s="1">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>282731</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C81" s="1">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D81" s="1">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E81" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F81" s="1">
-        <v>2025137</v>
+        <v>63026</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C82" s="1">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D82" s="1">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E82" s="1">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="F82" s="1">
-        <v>2100568</v>
+        <v>28833629</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C83" s="1">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="D83" s="1">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="E83" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F83" s="1">
-        <v>3912061</v>
+        <v>34571</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>438</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>116</v>
+        <v>463</v>
       </c>
       <c r="C84" s="1">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="D84" s="1">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="E84" s="1">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F84" s="1">
-        <v>82114224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C85" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D85" s="1">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="E85" s="1">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="F85" s="1">
-        <v>28833629</v>
+        <v>56480</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C86" s="1">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="D86" s="1">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E86" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F86" s="1">
-        <v>34571</v>
+        <v>2100568</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C87" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D87" s="1">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E87" s="1">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="F87" s="1">
-        <v>0</v>
+        <v>12717176</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C88" s="1">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="D88" s="1">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="E88" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F88" s="1">
-        <v>11159773</v>
+        <v>449568</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>170</v>
+        <v>464</v>
       </c>
       <c r="C89" s="1">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="D89" s="1">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="E89" s="1">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="F89" s="1">
-        <v>56480</v>
+        <v>1267689</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C90" s="1">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="D90" s="1">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="E90" s="1">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="F90" s="1">
-        <v>107825</v>
+        <v>11159773</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>177</v>
+        <v>465</v>
       </c>
       <c r="C91" s="1">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D91" s="1">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="E91" s="1">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="F91" s="1">
-        <v>449568</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="C92" s="1">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D92" s="1">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="E92" s="1">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="F92" s="1">
-        <v>164229</v>
+        <v>16913503</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="C93" s="1">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D93" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E93" s="1">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="F93" s="1">
-        <v>16913503</v>
+        <v>164229</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C94" s="1">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="D94" s="1">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="E94" s="1">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F94" s="1">
-        <v>63026</v>
+        <v>1861283</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C95" s="1">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D95" s="1">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="E95" s="1">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="F95" s="1">
-        <v>12717176</v>
+        <v>777859</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>191</v>
+        <v>466</v>
       </c>
       <c r="C96" s="1">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D96" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E96" s="1">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="F96" s="1">
-        <v>1861283</v>
+        <v>7634883</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>189</v>
+        <v>467</v>
       </c>
       <c r="C97" s="1">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="D97" s="1">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E97" s="1">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F97" s="1">
-        <v>777859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C98" s="1">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="D98" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E98" s="1">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="F98" s="1">
-        <v>10981229</v>
+        <v>9265067</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" s="1">
         <v>194</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="1">
-        <v>70</v>
-      </c>
       <c r="D99" s="1">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E99" s="1">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="F99" s="1">
-        <v>0</v>
+        <v>4189353</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C100" s="1">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="D100" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E100" s="1">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="F100" s="1">
-        <v>9265067</v>
+        <v>10981229</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="1">
         <v>192</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C101" s="1">
-        <v>204</v>
-      </c>
       <c r="D101" s="1">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="E101" s="1">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="F101" s="1">
-        <v>7634883</v>
+        <v>9721559</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>474</v>
+        <v>173</v>
       </c>
       <c r="C102" s="1">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="D102" s="1">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="E102" s="1">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F102" s="1">
-        <v>0</v>
+        <v>263991379</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C103" s="1">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="D103" s="1">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E103" s="1">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F103" s="1">
-        <v>9721559</v>
+        <v>4761657</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="C104" s="1">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="D104" s="1">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="E104" s="1">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F104" s="1">
-        <v>335025</v>
+        <v>8321570</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>212</v>
+        <v>468</v>
       </c>
       <c r="C105" s="1">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D105" s="1">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="E105" s="1">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="F105" s="1">
-        <v>1339180127</v>
+        <v>84287</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C106" s="1">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="D106" s="1">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="E106" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F106" s="1">
-        <v>263991379</v>
+        <v>1339180127</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>218</v>
+        <v>469</v>
       </c>
       <c r="C107" s="1">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="D107" s="1">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="E107" s="1">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="F107" s="1">
-        <v>81162788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="C108" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D108" s="1">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="E108" s="1">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="F108" s="1">
         <v>38274618</v>
@@ -4120,139 +4135,139 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="1">
         <v>206</v>
       </c>
-      <c r="C109" s="1">
-        <v>19</v>
-      </c>
       <c r="D109" s="1">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="E109" s="1">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="F109" s="1">
-        <v>4761657</v>
+        <v>81162788</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C110" s="1">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="D110" s="1">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="E110" s="1">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F110" s="1">
-        <v>84287</v>
+        <v>335025</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C111" s="1">
         <v>208</v>
       </c>
-      <c r="C111" s="1">
-        <v>204</v>
-      </c>
       <c r="D111" s="1">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="E111" s="1">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="F111" s="1">
-        <v>8321570</v>
+        <v>59359900</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C112" s="1">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="D112" s="1">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="E112" s="1">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="F112" s="1">
-        <v>59359900</v>
+        <v>100080</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="C113" s="1">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D113" s="1">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="E113" s="1">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="F113" s="1">
-        <v>24905843</v>
+        <v>2890299</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="C114" s="1">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="D114" s="1">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E114" s="1">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="F114" s="1">
-        <v>2890299</v>
+        <v>9702353</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C115" s="1">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="D115" s="1">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="E115" s="1">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="F115" s="1">
         <v>127484450</v>
@@ -4260,19 +4275,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>469</v>
+        <v>198</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>470</v>
       </c>
       <c r="C116" s="1">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D116" s="1">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E116" s="1">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -4280,179 +4295,179 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C117" s="1">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D117" s="1">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="E117" s="1">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F117" s="1">
-        <v>100080</v>
+        <v>49699862</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>476</v>
+        <v>202</v>
       </c>
       <c r="C118" s="1">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="D118" s="1">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="E118" s="1">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="F118" s="1">
-        <v>0</v>
+        <v>6045117</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C119" s="1">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D119" s="1">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="E119" s="1">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="F119" s="1">
-        <v>9702353</v>
+        <v>16005373</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="C120" s="1">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="D120" s="1">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E120" s="1">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="F120" s="1">
-        <v>0</v>
+        <v>116398</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="C121" s="1">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D121" s="1">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E121" s="1">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="F121" s="1">
-        <v>18204499</v>
+        <v>813912</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>234</v>
+        <v>471</v>
       </c>
       <c r="C122" s="1">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D122" s="1">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="E122" s="1">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="F122" s="1">
-        <v>49699862</v>
+        <v>55345</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>240</v>
+        <v>472</v>
       </c>
       <c r="C123" s="1">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D123" s="1">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="E123" s="1">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="F123" s="1">
-        <v>116398</v>
+        <v>25490965</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>250</v>
+        <v>473</v>
       </c>
       <c r="C124" s="1">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="D124" s="1">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="E124" s="1">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F124" s="1">
-        <v>1907592</v>
+        <v>50982212</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="C125" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D125" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E125" s="1">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="F125" s="1">
         <v>4136528</v>
@@ -4460,79 +4475,79 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>236</v>
+        <v>474</v>
       </c>
       <c r="C126" s="1">
+        <v>201</v>
+      </c>
+      <c r="D126" s="1">
+        <v>200</v>
+      </c>
+      <c r="E126" s="1">
         <v>204</v>
       </c>
-      <c r="D126" s="1">
-        <v>19</v>
-      </c>
-      <c r="E126" s="1">
-        <v>5</v>
-      </c>
       <c r="F126" s="1">
-        <v>6045117</v>
+        <v>61559</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="C127" s="1">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D127" s="1">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="E127" s="1">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="F127" s="1">
-        <v>6858160</v>
+        <v>18204499</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="C128" s="1">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="D128" s="1">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="E128" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F128" s="1">
-        <v>1949670</v>
+        <v>6858160</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C129" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D129" s="1">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="E129" s="1">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="F129" s="1">
         <v>6082357</v>
@@ -4540,679 +4555,679 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>271</v>
+        <v>475</v>
       </c>
       <c r="C130" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D130" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E130" s="1">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="F130" s="1">
-        <v>2233339</v>
+        <v>178844</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="C131" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D131" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E131" s="1">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="F131" s="1">
-        <v>4731906</v>
+        <v>37922</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>279</v>
+        <v>476</v>
       </c>
       <c r="C132" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D132" s="1">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E132" s="1">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="F132" s="1">
-        <v>6374616</v>
+        <v>20876917</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="C133" s="1">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D133" s="1">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="E133" s="1">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F133" s="1">
-        <v>37922</v>
+        <v>4731906</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="C134" s="1">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="D134" s="1">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="E134" s="1">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F134" s="1">
-        <v>2890297</v>
+        <v>2233339</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="C135" s="1">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="D135" s="1">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="E135" s="1">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F135" s="1">
-        <v>583455</v>
+        <v>2890297</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="C136" s="1">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="D136" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E136" s="1">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="F136" s="1">
-        <v>622567</v>
+        <v>583455</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="C137" s="1">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="D137" s="1">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E137" s="1">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F137" s="1">
-        <v>2073702</v>
+        <v>1949670</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C138" s="1">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="D138" s="1">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E138" s="1">
-        <v>4</v>
+        <v>194</v>
       </c>
       <c r="F138" s="1">
-        <v>25570895</v>
+        <v>6374616</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="C139" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D139" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E139" s="1">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F139" s="1">
-        <v>18622104</v>
+        <v>35739580</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="C140" s="1">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="D140" s="1">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="E140" s="1">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="F140" s="1">
-        <v>31624264</v>
+        <v>38695</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="C141" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D141" s="1">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="E141" s="1">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="F141" s="1">
-        <v>436330</v>
+        <v>4051212</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="C142" s="1">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="D142" s="1">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E142" s="1">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="F142" s="1">
-        <v>18541980</v>
+        <v>628960</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>323</v>
+        <v>477</v>
       </c>
       <c r="C143" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D143" s="1">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="E143" s="1">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="F143" s="1">
-        <v>430835</v>
+        <v>74852</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="C144" s="1">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="D144" s="1">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="E144" s="1">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="F144" s="1">
-        <v>53127</v>
+        <v>25570895</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>307</v>
+        <v>478</v>
       </c>
       <c r="C145" s="1">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="D145" s="1">
         <v>204</v>
       </c>
       <c r="E145" s="1">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="F145" s="1">
-        <v>384896</v>
+        <v>53127</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="C146" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D146" s="1">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E146" s="1">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="F146" s="1">
-        <v>4420184</v>
+        <v>2073702</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="C147" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D147" s="1">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E147" s="1">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="F147" s="1">
-        <v>1265138</v>
+        <v>18541980</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>507</v>
+        <v>258</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>508</v>
+        <v>259</v>
       </c>
       <c r="C148" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D148" s="1">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E148" s="1">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="F148" s="1">
-        <v>253045</v>
+        <v>53370609</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="C149" s="1">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="D149" s="1">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E149" s="1">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F149" s="1">
-        <v>129163276</v>
+        <v>3075647</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>477</v>
+        <v>256</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>478</v>
+        <v>257</v>
       </c>
       <c r="C150" s="1">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="D150" s="1">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="E150" s="1">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="F150" s="1">
-        <v>60</v>
+        <v>622567</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>285</v>
+        <v>479</v>
       </c>
       <c r="C151" s="1">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="D151" s="1">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="E151" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F151" s="1">
-        <v>4051212</v>
+        <v>55144</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="C152" s="1">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="D152" s="1">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="E152" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F152" s="1">
-        <v>38695</v>
+        <v>384896</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="C153" s="1">
         <v>201</v>
       </c>
       <c r="D153" s="1">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="E153" s="1">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="F153" s="1">
-        <v>3075647</v>
+        <v>4420184</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C154" s="1">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="D154" s="1">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="E154" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F154" s="1">
-        <v>628960</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C155" s="1">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="D155" s="1">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E155" s="1">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="F155" s="1">
-        <v>5177</v>
+        <v>430835</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C156" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D156" s="1">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="E156" s="1">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="F156" s="1">
-        <v>35739580</v>
+        <v>1265138</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="C157" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D157" s="1">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="E157" s="1">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="F157" s="1">
-        <v>29668834</v>
+        <v>436330</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="C158" s="1">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D158" s="1">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="E158" s="1">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="F158" s="1">
-        <v>53370609</v>
+        <v>18622104</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="C159" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D159" s="1">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E159" s="1">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="F159" s="1">
-        <v>2533794</v>
+        <v>129163276</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="C160" s="1">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="D160" s="1">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="E160" s="1">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="F160" s="1">
-        <v>11359</v>
+        <v>31624264</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="C161" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D161" s="1">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="E161" s="1">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="F161" s="1">
-        <v>29304998</v>
+        <v>29668834</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="C162" s="1">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="D162" s="1">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="E162" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F162" s="1">
-        <v>17035938</v>
+        <v>2533794</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>329</v>
+        <v>480</v>
       </c>
       <c r="C163" s="1">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="D163" s="1">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="E163" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F163" s="1">
         <v>276255</v>
@@ -5220,296 +5235,296 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="C164" s="1">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="D164" s="1">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="E164" s="1">
         <v>200</v>
       </c>
       <c r="F164" s="1">
-        <v>4705818</v>
+        <v>21477348</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>337</v>
+        <v>481</v>
       </c>
       <c r="C165" s="1">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="D165" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E165" s="1">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="F165" s="1">
-        <v>6217581</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="C166" s="1">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="D166" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E166" s="1">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="F166" s="1">
-        <v>21477348</v>
+        <v>190886311</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="C167" s="1">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D167" s="1">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="E167" s="1">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="F167" s="1">
-        <v>190886311</v>
+        <v>6217581</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="C168" s="1">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="D168" s="1">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="E168" s="1">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="F168" s="1">
-        <v>1618</v>
+        <v>17035938</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="C169" s="1">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="D169" s="1">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="E169" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F169" s="1">
-        <v>1748</v>
+        <v>5305383</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="C170" s="1">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D170" s="1">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="E170" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F170" s="1">
-        <v>25490965</v>
+        <v>29304998</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C171" s="1">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="D171" s="1">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="E171" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F171" s="1">
-        <v>55144</v>
+        <v>11359</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="C172" s="1">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="D172" s="1">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="E172" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F172" s="1">
-        <v>5305383</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>351</v>
+        <v>482</v>
       </c>
       <c r="C173" s="1">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="D173" s="1">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="E173" s="1">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="F173" s="1">
-        <v>4636262</v>
+        <v>4705818</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="C174" s="1">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D174" s="1">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="E174" s="1">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="F174" s="1">
-        <v>197015955</v>
+        <v>4636262</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="C175" s="1">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="D175" s="1">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="E175" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F175" s="1">
-        <v>21729</v>
+        <v>4098587</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="C176" s="1">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D176" s="1">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="E176" s="1">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="F176" s="1">
-        <v>3786239</v>
+        <v>32165485</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>353</v>
+        <v>483</v>
       </c>
       <c r="C177" s="1">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="D177" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E177" s="1">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="F177" s="1">
-        <v>4098587</v>
+        <v>283007</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>359</v>
+        <v>484</v>
       </c>
       <c r="C178" s="1">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D178" s="1">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="E178" s="1">
         <v>200</v>
@@ -5520,1559 +5535,1559 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="C179" s="1">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="D179" s="1">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="E179" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F179" s="1">
-        <v>6811297</v>
+        <v>104918090</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C180" s="1">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="D180" s="1">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="E180" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F180" s="1">
-        <v>32165485</v>
+        <v>197015955</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="C181" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D181" s="1">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="E181" s="1">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="F181" s="1">
-        <v>104918090</v>
+        <v>38170712</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>369</v>
+        <v>485</v>
       </c>
       <c r="C182" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D182" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E182" s="1">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="F182" s="1">
-        <v>57</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>365</v>
+        <v>486</v>
       </c>
       <c r="C183" s="1">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="D183" s="1">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="E183" s="1">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="F183" s="1">
-        <v>38170712</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>375</v>
+        <v>487</v>
       </c>
       <c r="C184" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D184" s="1">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="E184" s="1">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="F184" s="1">
-        <v>10329506</v>
+        <v>3663131</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>370</v>
+        <v>488</v>
       </c>
       <c r="C185" s="1">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="D185" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E185" s="1">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="F185" s="1">
-        <v>3663131</v>
+        <v>3786239</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="C186" s="1">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="D186" s="1">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="E186" s="1">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="F186" s="1">
-        <v>2639211</v>
+        <v>10329506</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>85</v>
+        <v>324</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>86</v>
+        <v>325</v>
       </c>
       <c r="C187" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D187" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E187" s="1">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="F187" s="1">
-        <v>5125821</v>
+        <v>21729</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="C188" s="1">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D188" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E188" s="1">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="F188" s="1">
-        <v>876562</v>
+        <v>6811297</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="C189" s="1">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="D189" s="1">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="E189" s="1">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F189" s="1">
-        <v>19679306</v>
+        <v>2639211</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="C190" s="1">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="D190" s="1">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="E190" s="1">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="F190" s="1">
-        <v>143989754</v>
+        <v>876562</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="C191" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D191" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E191" s="1">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="F191" s="1">
-        <v>12208407</v>
+        <v>19679306</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>54</v>
+        <v>335</v>
       </c>
       <c r="C192" s="1">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="D192" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E192" s="1">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="F192" s="1">
-        <v>9279</v>
+        <v>8790574</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="C193" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D193" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E193" s="1">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="F193" s="1">
-        <v>4049</v>
+        <v>143989754</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="C194" s="1">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="D194" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E194" s="1">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="F194" s="1">
-        <v>55345</v>
+        <v>12208407</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>262</v>
+        <v>489</v>
       </c>
       <c r="C195" s="1">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="D195" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E195" s="1">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="F195" s="1">
-        <v>178844</v>
+        <v>33554343</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>291</v>
+        <v>490</v>
       </c>
       <c r="C196" s="1">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="D196" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E196" s="1">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="F196" s="1">
-        <v>74852</v>
+        <v>611343</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="C197" s="1">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="D197" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E197" s="1">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="F197" s="1">
-        <v>6320</v>
+        <v>94737</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>489</v>
+        <v>344</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>490</v>
+        <v>345</v>
       </c>
       <c r="C198" s="1">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="D198" s="1">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="E198" s="1">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="F198" s="1">
-        <v>109643</v>
+        <v>40533330</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>503</v>
+        <v>346</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>504</v>
+        <v>347</v>
       </c>
       <c r="C199" s="1">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="D199" s="1">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="E199" s="1">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F199" s="1">
-        <v>196440</v>
+        <v>9910701</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="C200" s="1">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="D200" s="1">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="E200" s="1">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F200" s="1">
-        <v>33400</v>
+        <v>5708844</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="C201" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D201" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E201" s="1">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="F201" s="1">
-        <v>204327</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="C202" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D202" s="1">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E202" s="1">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F202" s="1">
-        <v>33554343</v>
+        <v>2079976</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>416</v>
+        <v>492</v>
       </c>
       <c r="C203" s="1">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D203" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E203" s="1">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="F203" s="1">
-        <v>15850567</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C204" s="1">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="D204" s="1">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="E204" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F204" s="1">
-        <v>8790574</v>
+        <v>5447662</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>396</v>
+        <v>224</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>397</v>
+        <v>493</v>
       </c>
       <c r="C205" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D205" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E205" s="1">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="F205" s="1">
-        <v>94737</v>
+        <v>7557212</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>412</v>
+        <v>494</v>
       </c>
       <c r="C206" s="1">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D206" s="1">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="E206" s="1">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="F206" s="1">
-        <v>7557212</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="C207" s="1">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="D207" s="1">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E207" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F207" s="1">
-        <v>5708844</v>
+        <v>15850567</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="C208" s="1">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="D208" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E208" s="1">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="F208" s="1">
-        <v>40120</v>
+        <v>14742523</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="C209" s="1">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="D209" s="1">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="E209" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F209" s="1">
-        <v>5447662</v>
+        <v>563402</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>407</v>
+        <v>495</v>
       </c>
       <c r="C210" s="1">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="D210" s="1">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="E210" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F210" s="1">
-        <v>2079976</v>
+        <v>12575714</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>395</v>
+        <v>496</v>
       </c>
       <c r="C211" s="1">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="D211" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E211" s="1">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="F211" s="1">
-        <v>611343</v>
+        <v>204327</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>418</v>
+        <v>497</v>
       </c>
       <c r="C212" s="1">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D212" s="1">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E212" s="1">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="F212" s="1">
-        <v>14742523</v>
+        <v>6377853</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>509</v>
+        <v>366</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C213" s="1">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D213" s="1">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E213" s="1">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="F213" s="1">
-        <v>56717156</v>
+        <v>40120</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>182</v>
+        <v>368</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>183</v>
+        <v>367</v>
       </c>
       <c r="C214" s="1">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="D214" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E214" s="1">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="F214" s="1">
-        <v>30</v>
+        <v>18269868</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>247</v>
+        <v>369</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="C215" s="1">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="D215" s="1">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="E215" s="1">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F215" s="1">
-        <v>50982212</v>
+        <v>1367254</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>422</v>
+        <v>499</v>
       </c>
       <c r="C216" s="1">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D216" s="1">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="E216" s="1">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="F216" s="1">
-        <v>12575714</v>
+        <v>35446</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>137</v>
+        <v>372</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>138</v>
+        <v>373</v>
       </c>
       <c r="C217" s="1">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="D217" s="1">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="E217" s="1">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F217" s="1">
-        <v>46354321</v>
+        <v>14899994</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>267</v>
+        <v>374</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>263</v>
+        <v>500</v>
       </c>
       <c r="C218" s="1">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D218" s="1">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="E218" s="1">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="F218" s="1">
-        <v>20876917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C219" s="1">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D219" s="1">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="E219" s="1">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="F219" s="1">
-        <v>40533330</v>
+        <v>7797694</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="C220" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D220" s="1">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="E220" s="1">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="F220" s="1">
-        <v>563402</v>
+        <v>69037513</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="C221" s="1">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="D221" s="1">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="E221" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F221" s="1">
-        <v>2642</v>
+        <v>8921343</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="C222" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D222" s="1">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="E222" s="1">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="F222" s="1">
-        <v>1367254</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="C223" s="1">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="D223" s="1">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="E223" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F223" s="1">
-        <v>9910701</v>
+        <v>1296311</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>87</v>
+        <v>385</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>89</v>
+        <v>386</v>
       </c>
       <c r="C224" s="1">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D224" s="1">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="E224" s="1">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F224" s="1">
-        <v>8476005</v>
+        <v>5758075</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="C225" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D225" s="1">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="E225" s="1">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="F225" s="1">
-        <v>18269868</v>
+        <v>11532127</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>461</v>
+        <v>389</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>462</v>
+        <v>390</v>
       </c>
       <c r="C226" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D226" s="1">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="E226" s="1">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="F226" s="1">
-        <v>23626456</v>
+        <v>108020</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="C227" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D227" s="1">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="E227" s="1">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="F227" s="1">
-        <v>8921343</v>
+        <v>80745020</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>463</v>
+        <v>393</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="C228" s="1">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="D228" s="1">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="E228" s="1">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="F228" s="1">
-        <v>57310019</v>
+        <v>1369125</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="C229" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D229" s="1">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="E229" s="1">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="F229" s="1">
-        <v>69037513</v>
+        <v>11192</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="C230" s="1">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="D230" s="1">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="E230" s="1">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F230" s="1">
-        <v>1296311</v>
+        <v>23626456</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="C231" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D231" s="1">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="E231" s="1">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="F231" s="1">
-        <v>7797694</v>
+        <v>57310019</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="C232" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D232" s="1">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="E232" s="1">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="F232" s="1">
-        <v>1300</v>
+        <v>44222947</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="C233" s="1">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="D233" s="1">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="E233" s="1">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F233" s="1">
-        <v>108020</v>
+        <v>42862958</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="C234" s="1">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D234" s="1">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="E234" s="1">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="F234" s="1">
-        <v>1369125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C235" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D235" s="1">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="E235" s="1">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="F235" s="1">
-        <v>11532127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="C236" s="1">
+        <v>202</v>
+      </c>
+      <c r="D236" s="1">
+        <v>193</v>
+      </c>
+      <c r="E236" s="1">
+        <v>201</v>
+      </c>
+      <c r="F236" s="1">
         <v>0</v>
-      </c>
-      <c r="D236" s="1">
-        <v>12</v>
-      </c>
-      <c r="E236" s="1">
-        <v>204</v>
-      </c>
-      <c r="F236" s="1">
-        <v>80745020</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="C237" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D237" s="1">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="E237" s="1">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="F237" s="1">
-        <v>5758075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="C238" s="1">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="D238" s="1">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E238" s="1">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="F238" s="1">
-        <v>35446</v>
+        <v>60</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="C239" s="1">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D239" s="1">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="E239" s="1">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="F239" s="1">
-        <v>11192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="C240" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D240" s="1">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="E240" s="1">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="F240" s="1">
-        <v>42862958</v>
+        <v>324459463</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>466</v>
+        <v>412</v>
       </c>
       <c r="C241" s="1">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="D241" s="1">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="E241" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F241" s="1">
-        <v>44222947</v>
+        <v>3456750</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>7</v>
+        <v>413</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>8</v>
+        <v>414</v>
       </c>
       <c r="C242" s="1">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="D242" s="1">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="E242" s="1">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="F242" s="1">
-        <v>9400145</v>
+        <v>31910641</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>155</v>
+        <v>415</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>156</v>
+        <v>509</v>
       </c>
       <c r="C243" s="1">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="D243" s="1">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="E243" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F243" s="1">
-        <v>66181585</v>
+        <v>451</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>481</v>
+        <v>416</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="C244" s="1">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="D244" s="1">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E244" s="1">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="F244" s="1">
-        <v>324459463</v>
+        <v>109643</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="C245" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D245" s="1">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="E245" s="1">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="F245" s="1">
-        <v>3456750</v>
+        <v>31977065</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>496</v>
+        <v>419</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="C246" s="1">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="D246" s="1">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="E246" s="1">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="F246" s="1">
-        <v>104901</v>
+        <v>31196</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="C247" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D247" s="1">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="E247" s="1">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="F247" s="1">
-        <v>31910641</v>
+        <v>104901</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>499</v>
+        <v>421</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="C248" s="1">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="D248" s="1">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E248" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F248" s="1">
-        <v>276244</v>
+        <v>95540800</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>488</v>
+        <v>424</v>
       </c>
       <c r="C249" s="1">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="D249" s="1">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="E249" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F249" s="1">
-        <v>451</v>
+        <v>276244</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="C250" s="1">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="D250" s="1">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="E250" s="1">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="F250" s="1">
-        <v>31977065</v>
+        <v>15289</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>497</v>
+        <v>426</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>498</v>
+        <v>427</v>
       </c>
       <c r="C251" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D251" s="1">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="E251" s="1">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="F251" s="1">
-        <v>95540800</v>
+        <v>196440</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>479</v>
+        <v>212</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>480</v>
+        <v>213</v>
       </c>
       <c r="C252" s="1">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="D252" s="1">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="E252" s="1">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="F252" s="1">
-        <v>0</v>
+        <v>1907592</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>501</v>
+        <v>428</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>502</v>
+        <v>429</v>
       </c>
       <c r="C253" s="1">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="D253" s="1">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="E253" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F253" s="1">
-        <v>15289</v>
+        <v>28250420</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>134</v>
+        <v>431</v>
       </c>
       <c r="C254" s="1">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="D254" s="1">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="E254" s="1">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="F254" s="1">
-        <v>552628</v>
+        <v>253045</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>505</v>
+        <v>432</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C255" s="1">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D255" s="1">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="E255" s="1">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="F255" s="1">
-        <v>28250420</v>
+        <v>56717156</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>512</v>
+        <v>434</v>
       </c>
       <c r="C256" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D256" s="1">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E256" s="1">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="F256" s="1">
         <v>17094130</v>
@@ -7080,19 +7095,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>513</v>
+        <v>435</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>514</v>
+        <v>436</v>
       </c>
       <c r="C257" s="1">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="D257" s="1">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="E257" s="1">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="F257" s="1">
         <v>16529904</v>
@@ -7100,14 +7115,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F258" xr:uid="{04E9B0CA-10E0-4C07-BDB3-8714988DB376}">
-    <sortState ref="A2:F258">
-      <sortCondition ref="B1:B258"/>
+    <sortState ref="A2:F257">
+      <sortCondition ref="A1:A258"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:F257">
     <sortCondition ref="B2:B257"/>
   </sortState>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G1:G1048576 H1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H257">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
